--- a/inputs/dataset_maquinas.xlsx
+++ b/inputs/dataset_maquinas.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Github\Production_Scheduling_RL\inputs\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{71E62C51-F5D2-457C-8920-55B415147B52}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{854B90B0-75B2-4270-97F5-7681B9855AA3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-20610" yWindow="-120" windowWidth="20730" windowHeight="11040" xr2:uid="{123EE8DF-F984-4E7E-8A09-7256808DEDFD}"/>
   </bookViews>
@@ -603,7 +603,7 @@
   <dimension ref="A1:D66"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C1" sqref="C1"/>
+      <selection activeCell="B6" sqref="B6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -633,7 +633,7 @@
         <v>4</v>
       </c>
       <c r="B2">
-        <v>29660</v>
+        <v>6345</v>
       </c>
       <c r="C2">
         <v>673</v>
@@ -647,7 +647,7 @@
         <v>5</v>
       </c>
       <c r="B3">
-        <v>44537</v>
+        <v>2129</v>
       </c>
       <c r="C3">
         <v>644</v>
@@ -661,7 +661,7 @@
         <v>6</v>
       </c>
       <c r="B4">
-        <v>23008</v>
+        <v>5608</v>
       </c>
       <c r="C4">
         <v>715</v>
@@ -675,7 +675,7 @@
         <v>7</v>
       </c>
       <c r="B5">
-        <v>59606</v>
+        <v>1736</v>
       </c>
       <c r="C5">
         <v>840</v>
@@ -689,7 +689,7 @@
         <v>8</v>
       </c>
       <c r="B6">
-        <v>70475</v>
+        <v>2389</v>
       </c>
       <c r="C6">
         <v>641</v>
@@ -703,7 +703,7 @@
         <v>9</v>
       </c>
       <c r="B7">
-        <v>68253</v>
+        <v>5064</v>
       </c>
       <c r="C7">
         <v>835</v>
@@ -717,7 +717,7 @@
         <v>10</v>
       </c>
       <c r="B8">
-        <v>64853</v>
+        <v>8016</v>
       </c>
       <c r="C8">
         <v>663</v>
@@ -731,7 +731,7 @@
         <v>11</v>
       </c>
       <c r="B9">
-        <v>57910</v>
+        <v>7658</v>
       </c>
       <c r="C9">
         <v>747</v>
@@ -745,7 +745,7 @@
         <v>12</v>
       </c>
       <c r="B10">
-        <v>47410</v>
+        <v>5231</v>
       </c>
       <c r="C10">
         <v>702</v>
@@ -759,7 +759,7 @@
         <v>13</v>
       </c>
       <c r="B11">
-        <v>34882</v>
+        <v>2548</v>
       </c>
       <c r="C11">
         <v>859</v>
@@ -773,7 +773,7 @@
         <v>14</v>
       </c>
       <c r="B12">
-        <v>50336</v>
+        <v>3524</v>
       </c>
       <c r="C12">
         <v>686</v>
@@ -787,7 +787,7 @@
         <v>15</v>
       </c>
       <c r="B13">
-        <v>41357</v>
+        <v>8345</v>
       </c>
       <c r="C13">
         <v>750</v>
@@ -801,7 +801,7 @@
         <v>16</v>
       </c>
       <c r="B14">
-        <v>36443</v>
+        <v>7770</v>
       </c>
       <c r="C14">
         <v>805</v>
@@ -815,7 +815,7 @@
         <v>17</v>
       </c>
       <c r="B15">
-        <v>24133</v>
+        <v>5737</v>
       </c>
       <c r="C15">
         <v>854</v>
@@ -829,7 +829,7 @@
         <v>18</v>
       </c>
       <c r="B16">
-        <v>26950</v>
+        <v>8035</v>
       </c>
       <c r="C16">
         <v>745</v>
@@ -843,7 +843,7 @@
         <v>19</v>
       </c>
       <c r="B17">
-        <v>61642</v>
+        <v>4638</v>
       </c>
       <c r="C17">
         <v>792</v>
@@ -857,7 +857,7 @@
         <v>20</v>
       </c>
       <c r="B18">
-        <v>41573</v>
+        <v>9459</v>
       </c>
       <c r="C18">
         <v>793</v>
@@ -871,7 +871,7 @@
         <v>21</v>
       </c>
       <c r="B19">
-        <v>63800</v>
+        <v>3013</v>
       </c>
       <c r="C19">
         <v>842</v>
@@ -885,7 +885,7 @@
         <v>22</v>
       </c>
       <c r="B20">
-        <v>63214</v>
+        <v>4781</v>
       </c>
       <c r="C20">
         <v>715</v>
@@ -899,7 +899,7 @@
         <v>23</v>
       </c>
       <c r="B21">
-        <v>69461</v>
+        <v>2677</v>
       </c>
       <c r="C21">
         <v>648</v>
@@ -913,7 +913,7 @@
         <v>24</v>
       </c>
       <c r="B22">
-        <v>36360</v>
+        <v>5606</v>
       </c>
       <c r="C22">
         <v>736</v>
@@ -927,7 +927,7 @@
         <v>25</v>
       </c>
       <c r="B23">
-        <v>57006</v>
+        <v>3848</v>
       </c>
       <c r="C23">
         <v>723</v>
@@ -941,7 +941,7 @@
         <v>26</v>
       </c>
       <c r="B24">
-        <v>63344</v>
+        <v>4980</v>
       </c>
       <c r="C24">
         <v>657</v>
@@ -955,7 +955,7 @@
         <v>27</v>
       </c>
       <c r="B25">
-        <v>35627</v>
+        <v>8304</v>
       </c>
       <c r="C25">
         <v>711</v>
@@ -969,7 +969,7 @@
         <v>28</v>
       </c>
       <c r="B26">
-        <v>69988</v>
+        <v>8098</v>
       </c>
       <c r="C26">
         <v>796</v>
@@ -983,7 +983,7 @@
         <v>29</v>
       </c>
       <c r="B27">
-        <v>53451</v>
+        <v>4222</v>
       </c>
       <c r="C27">
         <v>724</v>
@@ -997,7 +997,7 @@
         <v>30</v>
       </c>
       <c r="B28">
-        <v>70189</v>
+        <v>9827</v>
       </c>
       <c r="C28">
         <v>711</v>
@@ -1011,7 +1011,7 @@
         <v>31</v>
       </c>
       <c r="B29">
-        <v>70001</v>
+        <v>6381</v>
       </c>
       <c r="C29">
         <v>877</v>
@@ -1025,7 +1025,7 @@
         <v>32</v>
       </c>
       <c r="B30">
-        <v>56882</v>
+        <v>6600</v>
       </c>
       <c r="C30">
         <v>745</v>
@@ -1039,7 +1039,7 @@
         <v>33</v>
       </c>
       <c r="B31">
-        <v>33603</v>
+        <v>3076</v>
       </c>
       <c r="C31">
         <v>780</v>
@@ -1053,7 +1053,7 @@
         <v>34</v>
       </c>
       <c r="B32">
-        <v>29146</v>
+        <v>7835</v>
       </c>
       <c r="C32">
         <v>708</v>
@@ -1067,7 +1067,7 @@
         <v>35</v>
       </c>
       <c r="B33">
-        <v>55396</v>
+        <v>6582</v>
       </c>
       <c r="C33">
         <v>829</v>
@@ -1081,7 +1081,7 @@
         <v>36</v>
       </c>
       <c r="B34">
-        <v>28353</v>
+        <v>3727</v>
       </c>
       <c r="C34">
         <v>605</v>
@@ -1095,7 +1095,7 @@
         <v>37</v>
       </c>
       <c r="B35">
-        <v>55623</v>
+        <v>6906</v>
       </c>
       <c r="C35">
         <v>705</v>
@@ -1109,7 +1109,7 @@
         <v>38</v>
       </c>
       <c r="B36">
-        <v>44326</v>
+        <v>2857</v>
       </c>
       <c r="C36">
         <v>783</v>
@@ -1123,7 +1123,7 @@
         <v>39</v>
       </c>
       <c r="B37">
-        <v>50472</v>
+        <v>9265</v>
       </c>
       <c r="C37">
         <v>629</v>
@@ -1137,7 +1137,7 @@
         <v>40</v>
       </c>
       <c r="B38">
-        <v>53406</v>
+        <v>2619</v>
       </c>
       <c r="C38">
         <v>730</v>
@@ -1151,7 +1151,7 @@
         <v>41</v>
       </c>
       <c r="B39">
-        <v>40978</v>
+        <v>6902</v>
       </c>
       <c r="C39">
         <v>783</v>
@@ -1165,7 +1165,7 @@
         <v>42</v>
       </c>
       <c r="B40">
-        <v>59474</v>
+        <v>9409</v>
       </c>
       <c r="C40">
         <v>826</v>
@@ -1179,7 +1179,7 @@
         <v>43</v>
       </c>
       <c r="B41">
-        <v>59220</v>
+        <v>2810</v>
       </c>
       <c r="C41">
         <v>652</v>
@@ -1193,7 +1193,7 @@
         <v>44</v>
       </c>
       <c r="B42">
-        <v>45475</v>
+        <v>4858</v>
       </c>
       <c r="C42">
         <v>695</v>
@@ -1207,7 +1207,7 @@
         <v>45</v>
       </c>
       <c r="B43">
-        <v>48120</v>
+        <v>6426</v>
       </c>
       <c r="C43">
         <v>656</v>
@@ -1221,7 +1221,7 @@
         <v>46</v>
       </c>
       <c r="B44">
-        <v>47730</v>
+        <v>9777</v>
       </c>
       <c r="C44">
         <v>805</v>
@@ -1235,7 +1235,7 @@
         <v>47</v>
       </c>
       <c r="B45">
-        <v>52062</v>
+        <v>4073</v>
       </c>
       <c r="C45">
         <v>872</v>
@@ -1249,7 +1249,7 @@
         <v>48</v>
       </c>
       <c r="B46">
-        <v>49128</v>
+        <v>4622</v>
       </c>
       <c r="C46">
         <v>827</v>
@@ -1263,7 +1263,7 @@
         <v>49</v>
       </c>
       <c r="B47">
-        <v>59570</v>
+        <v>5128</v>
       </c>
       <c r="C47">
         <v>871</v>
@@ -1277,7 +1277,7 @@
         <v>50</v>
       </c>
       <c r="B48">
-        <v>34547</v>
+        <v>4733</v>
       </c>
       <c r="C48">
         <v>652</v>
@@ -1291,7 +1291,7 @@
         <v>51</v>
       </c>
       <c r="B49">
-        <v>46404</v>
+        <v>2041</v>
       </c>
       <c r="C49">
         <v>620</v>
@@ -1305,7 +1305,7 @@
         <v>52</v>
       </c>
       <c r="B50">
-        <v>70183</v>
+        <v>9603</v>
       </c>
       <c r="C50">
         <v>698</v>
@@ -1319,7 +1319,7 @@
         <v>53</v>
       </c>
       <c r="B51">
-        <v>47747</v>
+        <v>9591</v>
       </c>
       <c r="C51">
         <v>791</v>
@@ -1333,7 +1333,7 @@
         <v>54</v>
       </c>
       <c r="B52">
-        <v>57579</v>
+        <v>5738</v>
       </c>
       <c r="C52">
         <v>805</v>
@@ -1347,7 +1347,7 @@
         <v>55</v>
       </c>
       <c r="B53">
-        <v>59991</v>
+        <v>6548</v>
       </c>
       <c r="C53">
         <v>788</v>
@@ -1361,7 +1361,7 @@
         <v>56</v>
       </c>
       <c r="B54">
-        <v>21613</v>
+        <v>9995</v>
       </c>
       <c r="C54">
         <v>695</v>
@@ -1375,7 +1375,7 @@
         <v>57</v>
       </c>
       <c r="B55">
-        <v>57140</v>
+        <v>2633</v>
       </c>
       <c r="C55">
         <v>707</v>
@@ -1389,7 +1389,7 @@
         <v>58</v>
       </c>
       <c r="B56">
-        <v>23892</v>
+        <v>5667</v>
       </c>
       <c r="C56">
         <v>695</v>
@@ -1403,7 +1403,7 @@
         <v>59</v>
       </c>
       <c r="B57">
-        <v>62122</v>
+        <v>3343</v>
       </c>
       <c r="C57">
         <v>875</v>
@@ -1417,7 +1417,7 @@
         <v>60</v>
       </c>
       <c r="B58">
-        <v>33619</v>
+        <v>8367</v>
       </c>
       <c r="C58">
         <v>721</v>
@@ -1431,7 +1431,7 @@
         <v>61</v>
       </c>
       <c r="B59">
-        <v>28558</v>
+        <v>6329</v>
       </c>
       <c r="C59">
         <v>756</v>
@@ -1445,7 +1445,7 @@
         <v>62</v>
       </c>
       <c r="B60">
-        <v>21924</v>
+        <v>8540</v>
       </c>
       <c r="C60">
         <v>703</v>
@@ -1459,7 +1459,7 @@
         <v>63</v>
       </c>
       <c r="B61">
-        <v>26747</v>
+        <v>4601</v>
       </c>
       <c r="C61">
         <v>708</v>
@@ -1473,7 +1473,7 @@
         <v>64</v>
       </c>
       <c r="B62">
-        <v>53322</v>
+        <v>4984</v>
       </c>
       <c r="C62">
         <v>759</v>
@@ -1487,7 +1487,7 @@
         <v>65</v>
       </c>
       <c r="B63">
-        <v>29591</v>
+        <v>9320</v>
       </c>
       <c r="C63">
         <v>720</v>
@@ -1501,7 +1501,7 @@
         <v>66</v>
       </c>
       <c r="B64">
-        <v>28426</v>
+        <v>7668</v>
       </c>
       <c r="C64">
         <v>769</v>
@@ -1515,7 +1515,7 @@
         <v>67</v>
       </c>
       <c r="B65">
-        <v>68303</v>
+        <v>3408</v>
       </c>
       <c r="C65">
         <v>774</v>
@@ -1529,7 +1529,7 @@
         <v>68</v>
       </c>
       <c r="B66">
-        <v>57022</v>
+        <v>8173</v>
       </c>
       <c r="C66">
         <v>781</v>

--- a/inputs/dataset_maquinas.xlsx
+++ b/inputs/dataset_maquinas.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Github\Production_Scheduling_RL\inputs\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BEE0E460-F8FB-47D6-8465-45B78938ECE4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D63881E7-D5BE-42F3-92B2-319F7C3A8302}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-20610" yWindow="-120" windowWidth="20730" windowHeight="11040" xr2:uid="{123EE8DF-F984-4E7E-8A09-7256808DEDFD}"/>
   </bookViews>
@@ -58,40 +58,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="70" uniqueCount="70">
-  <si>
-    <t>id_maquina</t>
-  </si>
-  <si>
-    <t>tempo_vida</t>
-  </si>
-  <si>
-    <t>tempo_corretiva</t>
-  </si>
-  <si>
-    <t>tempo_preventiva</t>
-  </si>
-  <si>
-    <t>AB3</t>
-  </si>
-  <si>
-    <t>AB4</t>
-  </si>
-  <si>
-    <t>AB5</t>
-  </si>
-  <si>
-    <t>HIMALA</t>
-  </si>
-  <si>
-    <t>ML1</t>
-  </si>
-  <si>
-    <t>ML2</t>
-  </si>
-  <si>
-    <t>ML3</t>
-  </si>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="63" uniqueCount="63">
   <si>
     <t>_B16</t>
   </si>
@@ -268,6 +235,18 @@
   </si>
   <si>
     <t>_WE2</t>
+  </si>
+  <si>
+    <t>corrective_time</t>
+  </si>
+  <si>
+    <t>preventive_time</t>
+  </si>
+  <si>
+    <t>usefull_time</t>
+  </si>
+  <si>
+    <t>id_machine</t>
   </si>
 </sst>
 </file>
@@ -651,10 +630,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{163FB843-72FA-4E74-A994-673272DA6E08}">
-  <dimension ref="A1:D67"/>
+  <dimension ref="A1:D60"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B1" sqref="B1"/>
+      <selection activeCell="B3" sqref="B3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -667,1138 +646,901 @@
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A1" t="s">
-        <v>0</v>
+        <v>62</v>
       </c>
       <c r="B1" t="s">
-        <v>1</v>
+        <v>61</v>
       </c>
       <c r="C1" t="s">
-        <v>2</v>
+        <v>59</v>
       </c>
       <c r="D1" t="s">
-        <v>3</v>
+        <v>60</v>
       </c>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A2" s="1" t="s">
-        <v>11</v>
+        <v>0</v>
       </c>
       <c r="B2" cm="1">
-        <f t="array" aca="1" ref="B2:B67" ca="1">_xlfn.RANDARRAY(66,1,15*24,45*24,FALSE)</f>
-        <v>598.3764598852606</v>
-      </c>
-      <c r="C2" s="2" cm="1">
-        <f t="array" aca="1" ref="C2:C67" ca="1">_xlfn.RANDARRAY(66,1,8,15,FALSE)</f>
-        <v>8.8208176555357323</v>
-      </c>
-      <c r="D2" s="2" cm="1">
-        <f t="array" aca="1" ref="D2:D67" ca="1">_xlfn.RANDARRAY(66,1,0.45,1.5,FALSE)</f>
-        <v>1.3325864752155894</v>
+        <f t="array" aca="1" ref="B2:B60" ca="1">_xlfn.RANDARRAY(59,1,12,114*24,FALSE)</f>
+        <v>891.6764077164471</v>
+      </c>
+      <c r="C2" s="2">
+        <v>6</v>
+      </c>
+      <c r="D2" s="2">
+        <v>1</v>
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A3" s="1" t="s">
-        <v>12</v>
+        <v>1</v>
       </c>
       <c r="B3">
         <f ca="1"/>
-        <v>835.23164484123004</v>
+        <v>1668.9434463337557</v>
       </c>
       <c r="C3" s="2">
-        <f ca="1"/>
-        <v>8.1415805832306081</v>
+        <v>6</v>
       </c>
       <c r="D3" s="2">
-        <f ca="1"/>
-        <v>1.3083233287739464</v>
+        <v>1</v>
       </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A4" s="1" t="s">
-        <v>13</v>
+        <v>2</v>
       </c>
       <c r="B4">
         <f ca="1"/>
-        <v>726.81894170419423</v>
+        <v>587.99411702081215</v>
       </c>
       <c r="C4" s="2">
-        <f ca="1"/>
-        <v>14.047827141109591</v>
+        <v>6</v>
       </c>
       <c r="D4" s="2">
-        <f ca="1"/>
-        <v>1.1098991040514328</v>
+        <v>1</v>
       </c>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A5" s="1" t="s">
-        <v>14</v>
+        <v>3</v>
       </c>
       <c r="B5">
         <f ca="1"/>
-        <v>460.72839316429304</v>
+        <v>760.32415206721498</v>
       </c>
       <c r="C5" s="2">
-        <f ca="1"/>
-        <v>9.135320175888225</v>
+        <v>6</v>
       </c>
       <c r="D5" s="2">
-        <f ca="1"/>
-        <v>0.70573163107459513</v>
+        <v>1</v>
       </c>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A6" s="1" t="s">
-        <v>15</v>
+        <v>4</v>
       </c>
       <c r="B6">
         <f ca="1"/>
-        <v>889.7304319469049</v>
+        <v>1623.9448179539422</v>
       </c>
       <c r="C6" s="2">
-        <f ca="1"/>
-        <v>8.7711732697377958</v>
+        <v>6</v>
       </c>
       <c r="D6" s="2">
-        <f ca="1"/>
-        <v>0.82459267126104496</v>
+        <v>1</v>
       </c>
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A7" s="1" t="s">
-        <v>16</v>
+        <v>5</v>
       </c>
       <c r="B7">
         <f ca="1"/>
-        <v>461.88695601809377</v>
+        <v>680.15023590583769</v>
       </c>
       <c r="C7" s="2">
-        <f ca="1"/>
-        <v>10.441469675886651</v>
+        <v>6</v>
       </c>
       <c r="D7" s="2">
-        <f ca="1"/>
-        <v>0.79256543090597242</v>
+        <v>1</v>
       </c>
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A8" s="1" t="s">
-        <v>17</v>
+        <v>6</v>
       </c>
       <c r="B8">
         <f ca="1"/>
-        <v>837.44800173403951</v>
+        <v>723.16429358274445</v>
       </c>
       <c r="C8" s="2">
-        <f ca="1"/>
-        <v>12.39420372352372</v>
+        <v>6</v>
       </c>
       <c r="D8" s="2">
-        <f ca="1"/>
-        <v>0.56973192389058647</v>
+        <v>1</v>
       </c>
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A9" s="1" t="s">
-        <v>18</v>
+        <v>7</v>
       </c>
       <c r="B9">
         <f ca="1"/>
-        <v>630.247716750368</v>
+        <v>2610.4652565127126</v>
       </c>
       <c r="C9" s="2">
-        <f ca="1"/>
-        <v>8.7962782415775322</v>
+        <v>6</v>
       </c>
       <c r="D9" s="2">
-        <f ca="1"/>
-        <v>1.1326739475693655</v>
+        <v>1</v>
       </c>
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A10" s="1" t="s">
-        <v>19</v>
+        <v>8</v>
       </c>
       <c r="B10">
         <f ca="1"/>
-        <v>957.80566767757909</v>
+        <v>98.04273296948395</v>
       </c>
       <c r="C10" s="2">
-        <f ca="1"/>
-        <v>12.124344733871844</v>
+        <v>6</v>
       </c>
       <c r="D10" s="2">
-        <f ca="1"/>
-        <v>1.1405925439926434</v>
+        <v>1</v>
       </c>
     </row>
     <row r="11" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A11" s="1" t="s">
-        <v>20</v>
+        <v>9</v>
       </c>
       <c r="B11">
         <f ca="1"/>
-        <v>713.88651182026911</v>
+        <v>2118.9769954981716</v>
       </c>
       <c r="C11" s="2">
-        <f ca="1"/>
-        <v>10.961786753045553</v>
+        <v>6</v>
       </c>
       <c r="D11" s="2">
-        <f ca="1"/>
-        <v>0.60652084131640271</v>
+        <v>1</v>
       </c>
     </row>
     <row r="12" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A12" s="1" t="s">
-        <v>21</v>
+        <v>10</v>
       </c>
       <c r="B12">
         <f ca="1"/>
-        <v>692.58556407620063</v>
+        <v>1377.195827548258</v>
       </c>
       <c r="C12" s="2">
-        <f ca="1"/>
-        <v>8.8252728823461677</v>
+        <v>6</v>
       </c>
       <c r="D12" s="2">
-        <f ca="1"/>
-        <v>1.0434201607607148</v>
+        <v>1</v>
       </c>
     </row>
     <row r="13" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A13" s="1" t="s">
-        <v>22</v>
+        <v>11</v>
       </c>
       <c r="B13">
         <f ca="1"/>
-        <v>628.81932754625632</v>
+        <v>1158.8208081720322</v>
       </c>
       <c r="C13" s="2">
-        <f ca="1"/>
-        <v>12.355697310984105</v>
+        <v>6</v>
       </c>
       <c r="D13" s="2">
-        <f ca="1"/>
-        <v>1.4303294885874618</v>
+        <v>1</v>
       </c>
     </row>
     <row r="14" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A14" s="1" t="s">
-        <v>23</v>
+        <v>12</v>
       </c>
       <c r="B14">
         <f ca="1"/>
-        <v>811.75145574830321</v>
+        <v>143.90789600660128</v>
       </c>
       <c r="C14" s="2">
-        <f ca="1"/>
-        <v>9.5933325912598733</v>
+        <v>6</v>
       </c>
       <c r="D14" s="2">
-        <f ca="1"/>
-        <v>0.88161792534699046</v>
+        <v>1</v>
       </c>
     </row>
     <row r="15" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A15" s="1" t="s">
-        <v>24</v>
+        <v>13</v>
       </c>
       <c r="B15">
         <f ca="1"/>
-        <v>513.39099484125813</v>
+        <v>1058.4329742388254</v>
       </c>
       <c r="C15" s="2">
-        <f ca="1"/>
-        <v>14.80352629242242</v>
+        <v>6</v>
       </c>
       <c r="D15" s="2">
-        <f ca="1"/>
-        <v>0.63999655728453497</v>
+        <v>1</v>
       </c>
     </row>
     <row r="16" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A16" s="1" t="s">
-        <v>25</v>
+        <v>14</v>
       </c>
       <c r="B16">
         <f ca="1"/>
-        <v>524.59142194785318</v>
+        <v>300.93998014899762</v>
       </c>
       <c r="C16" s="2">
-        <f ca="1"/>
-        <v>14.290955739134402</v>
+        <v>6</v>
       </c>
       <c r="D16" s="2">
-        <f ca="1"/>
-        <v>0.9294900849082075</v>
+        <v>1</v>
       </c>
     </row>
     <row r="17" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A17" s="1" t="s">
-        <v>26</v>
+        <v>15</v>
       </c>
       <c r="B17">
         <f ca="1"/>
-        <v>654.90610518553967</v>
+        <v>2142.9054721356879</v>
       </c>
       <c r="C17" s="2">
-        <f ca="1"/>
-        <v>12.656192051794234</v>
+        <v>6</v>
       </c>
       <c r="D17" s="2">
-        <f ca="1"/>
-        <v>1.347000125378216</v>
+        <v>1</v>
       </c>
     </row>
     <row r="18" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A18" s="1" t="s">
-        <v>27</v>
+        <v>16</v>
       </c>
       <c r="B18">
         <f ca="1"/>
-        <v>1069.556757720065</v>
+        <v>411.90278167031556</v>
       </c>
       <c r="C18" s="2">
-        <f ca="1"/>
-        <v>11.885137033665504</v>
+        <v>6</v>
       </c>
       <c r="D18" s="2">
-        <f ca="1"/>
-        <v>1.0755919554551094</v>
+        <v>1</v>
       </c>
     </row>
     <row r="19" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A19" s="1" t="s">
-        <v>28</v>
+        <v>17</v>
       </c>
       <c r="B19">
         <f ca="1"/>
-        <v>952.51626517980685</v>
+        <v>805.16866050208182</v>
       </c>
       <c r="C19" s="2">
-        <f ca="1"/>
-        <v>13.509344176606424</v>
+        <v>6</v>
       </c>
       <c r="D19" s="2">
-        <f ca="1"/>
-        <v>0.84799073616241327</v>
+        <v>1</v>
       </c>
     </row>
     <row r="20" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A20" s="1" t="s">
-        <v>29</v>
+        <v>18</v>
       </c>
       <c r="B20">
         <f ca="1"/>
-        <v>375.94485298320933</v>
+        <v>600.79961647824985</v>
       </c>
       <c r="C20" s="2">
-        <f ca="1"/>
-        <v>9.3960615872436719</v>
+        <v>6</v>
       </c>
       <c r="D20" s="2">
-        <f ca="1"/>
-        <v>0.61817022987563996</v>
+        <v>1</v>
       </c>
     </row>
     <row r="21" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A21" s="1" t="s">
-        <v>30</v>
+        <v>19</v>
       </c>
       <c r="B21">
         <f ca="1"/>
-        <v>935.56089988038502</v>
+        <v>1751.6517168446858</v>
       </c>
       <c r="C21" s="2">
-        <f ca="1"/>
-        <v>14.13737066807311</v>
+        <v>6</v>
       </c>
       <c r="D21" s="2">
-        <f ca="1"/>
-        <v>0.58275845571146068</v>
+        <v>1</v>
       </c>
     </row>
     <row r="22" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A22" s="1" t="s">
-        <v>31</v>
+        <v>20</v>
       </c>
       <c r="B22">
         <f ca="1"/>
-        <v>856.47753846881801</v>
+        <v>186.76709346595408</v>
       </c>
       <c r="C22" s="2">
-        <f ca="1"/>
-        <v>8.4571296083756256</v>
+        <v>6</v>
       </c>
       <c r="D22" s="2">
-        <f ca="1"/>
-        <v>1.2224055064416677</v>
+        <v>1</v>
       </c>
     </row>
     <row r="23" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A23" s="1" t="s">
-        <v>32</v>
+        <v>21</v>
       </c>
       <c r="B23">
         <f ca="1"/>
-        <v>1052.5950791196647</v>
+        <v>1945.5834888084723</v>
       </c>
       <c r="C23" s="2">
-        <f ca="1"/>
-        <v>14.758390666485356</v>
+        <v>6</v>
       </c>
       <c r="D23" s="2">
-        <f ca="1"/>
-        <v>0.51330408077528689</v>
+        <v>1</v>
       </c>
     </row>
     <row r="24" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A24" s="1" t="s">
-        <v>33</v>
+        <v>22</v>
       </c>
       <c r="B24">
         <f ca="1"/>
-        <v>879.7603499807401</v>
+        <v>2283.5551309125212</v>
       </c>
       <c r="C24" s="2">
-        <f ca="1"/>
-        <v>13.415813364135865</v>
+        <v>6</v>
       </c>
       <c r="D24" s="2">
-        <f ca="1"/>
-        <v>1.1276352051661431</v>
+        <v>1</v>
       </c>
     </row>
     <row r="25" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A25" s="1" t="s">
-        <v>34</v>
+        <v>23</v>
       </c>
       <c r="B25">
         <f ca="1"/>
-        <v>597.10492942052679</v>
+        <v>1183.1583560344948</v>
       </c>
       <c r="C25" s="2">
-        <f ca="1"/>
-        <v>12.259176176950271</v>
+        <v>6</v>
       </c>
       <c r="D25" s="2">
-        <f ca="1"/>
-        <v>0.48933454663656639</v>
+        <v>1</v>
       </c>
     </row>
     <row r="26" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A26" s="1" t="s">
-        <v>35</v>
+        <v>24</v>
       </c>
       <c r="B26">
         <f ca="1"/>
-        <v>836.51390288160474</v>
+        <v>2700.6108665011311</v>
       </c>
       <c r="C26" s="2">
-        <f ca="1"/>
-        <v>8.3076969735326394</v>
+        <v>6</v>
       </c>
       <c r="D26" s="2">
-        <f ca="1"/>
-        <v>0.89264766024417197</v>
+        <v>1</v>
       </c>
     </row>
     <row r="27" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A27" s="1" t="s">
-        <v>36</v>
+        <v>25</v>
       </c>
       <c r="B27">
         <f ca="1"/>
-        <v>730.70213331812988</v>
+        <v>905.95407210511848</v>
       </c>
       <c r="C27" s="2">
-        <f ca="1"/>
-        <v>9.9404320615837172</v>
+        <v>6</v>
       </c>
       <c r="D27" s="2">
-        <f ca="1"/>
-        <v>1.0523033400915258</v>
+        <v>1</v>
       </c>
     </row>
     <row r="28" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A28" s="1" t="s">
-        <v>37</v>
+        <v>26</v>
       </c>
       <c r="B28">
         <f ca="1"/>
-        <v>814.52891816337728</v>
+        <v>190.61711249207656</v>
       </c>
       <c r="C28" s="2">
-        <f ca="1"/>
-        <v>8.5160686542188735</v>
+        <v>6</v>
       </c>
       <c r="D28" s="2">
-        <f ca="1"/>
-        <v>1.3723999829767271</v>
+        <v>1</v>
       </c>
     </row>
     <row r="29" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A29" s="1" t="s">
-        <v>38</v>
+        <v>27</v>
       </c>
       <c r="B29">
         <f ca="1"/>
-        <v>847.09486901762239</v>
+        <v>2092.6345530750959</v>
       </c>
       <c r="C29" s="2">
-        <f ca="1"/>
-        <v>10.955652115386295</v>
+        <v>6</v>
       </c>
       <c r="D29" s="2">
-        <f ca="1"/>
-        <v>0.88967822984717992</v>
+        <v>1</v>
       </c>
     </row>
     <row r="30" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A30" s="1" t="s">
-        <v>39</v>
+        <v>28</v>
       </c>
       <c r="B30">
         <f ca="1"/>
-        <v>831.81114832701269</v>
+        <v>675.1176425389217</v>
       </c>
       <c r="C30" s="2">
-        <f ca="1"/>
-        <v>10.817623613103924</v>
+        <v>6</v>
       </c>
       <c r="D30" s="2">
-        <f ca="1"/>
-        <v>1.251484655543331</v>
+        <v>1</v>
       </c>
     </row>
     <row r="31" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A31" s="1" t="s">
-        <v>40</v>
+        <v>29</v>
       </c>
       <c r="B31">
         <f ca="1"/>
-        <v>821.81476589276804</v>
+        <v>120.58052568005269</v>
       </c>
       <c r="C31" s="2">
-        <f ca="1"/>
-        <v>13.580445525481373</v>
+        <v>6</v>
       </c>
       <c r="D31" s="2">
-        <f ca="1"/>
-        <v>1.3826815878250767</v>
+        <v>1</v>
       </c>
     </row>
     <row r="32" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A32" s="1" t="s">
-        <v>41</v>
+        <v>30</v>
       </c>
       <c r="B32">
         <f ca="1"/>
-        <v>571.03429033659631</v>
+        <v>1181.22527084582</v>
       </c>
       <c r="C32" s="2">
-        <f ca="1"/>
-        <v>8.6827443644635292</v>
+        <v>6</v>
       </c>
       <c r="D32" s="2">
-        <f ca="1"/>
-        <v>0.64815654032758374</v>
+        <v>1</v>
       </c>
     </row>
     <row r="33" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A33" s="1" t="s">
-        <v>42</v>
+        <v>31</v>
       </c>
       <c r="B33">
         <f ca="1"/>
-        <v>473.40005241435165</v>
+        <v>749.65426933212484</v>
       </c>
       <c r="C33" s="2">
-        <f ca="1"/>
-        <v>14.045411022688004</v>
+        <v>6</v>
       </c>
       <c r="D33" s="2">
-        <f ca="1"/>
-        <v>0.90484398375973263</v>
+        <v>1</v>
       </c>
     </row>
     <row r="34" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A34" s="1" t="s">
-        <v>43</v>
+        <v>32</v>
       </c>
       <c r="B34">
         <f ca="1"/>
-        <v>438.78009497959738</v>
+        <v>616.80989106614879</v>
       </c>
       <c r="C34" s="2">
-        <f ca="1"/>
-        <v>8.9022250318196203</v>
+        <v>6</v>
       </c>
       <c r="D34" s="2">
-        <f ca="1"/>
-        <v>1.3769737016063779</v>
+        <v>1</v>
       </c>
     </row>
     <row r="35" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A35" s="1" t="s">
-        <v>44</v>
+        <v>33</v>
       </c>
       <c r="B35">
         <f ca="1"/>
-        <v>759.37375492995307</v>
+        <v>1267.6321011929831</v>
       </c>
       <c r="C35" s="2">
-        <f ca="1"/>
-        <v>12.721197964484482</v>
+        <v>6</v>
       </c>
       <c r="D35" s="2">
-        <f ca="1"/>
-        <v>1.0699343169548512</v>
+        <v>1</v>
       </c>
     </row>
     <row r="36" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A36" s="1" t="s">
-        <v>45</v>
+        <v>34</v>
       </c>
       <c r="B36">
         <f ca="1"/>
-        <v>1046.6644495726318</v>
+        <v>2246.8742255750171</v>
       </c>
       <c r="C36" s="2">
-        <f ca="1"/>
-        <v>10.421650027215597</v>
+        <v>6</v>
       </c>
       <c r="D36" s="2">
-        <f ca="1"/>
-        <v>1.2940949817788416</v>
+        <v>1</v>
       </c>
     </row>
     <row r="37" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A37" s="1" t="s">
-        <v>46</v>
+        <v>35</v>
       </c>
       <c r="B37">
         <f ca="1"/>
-        <v>385.70426447575414</v>
+        <v>332.19076643274047</v>
       </c>
       <c r="C37" s="2">
-        <f ca="1"/>
-        <v>14.430316572868072</v>
+        <v>6</v>
       </c>
       <c r="D37" s="2">
-        <f ca="1"/>
-        <v>0.93545308151940443</v>
+        <v>1</v>
       </c>
     </row>
     <row r="38" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A38" s="1" t="s">
-        <v>47</v>
+        <v>36</v>
       </c>
       <c r="B38">
         <f ca="1"/>
-        <v>557.09736559980456</v>
+        <v>261.45510216569664</v>
       </c>
       <c r="C38" s="2">
-        <f ca="1"/>
-        <v>13.847696344626092</v>
+        <v>6</v>
       </c>
       <c r="D38" s="2">
-        <f ca="1"/>
-        <v>1.1134517774995585</v>
+        <v>1</v>
       </c>
     </row>
     <row r="39" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A39" s="1" t="s">
-        <v>48</v>
+        <v>37</v>
       </c>
       <c r="B39">
         <f ca="1"/>
-        <v>523.93221986796993</v>
+        <v>2569.5692053627163</v>
       </c>
       <c r="C39" s="2">
-        <f ca="1"/>
-        <v>10.698573394673216</v>
+        <v>6</v>
       </c>
       <c r="D39" s="2">
-        <f ca="1"/>
-        <v>0.47437538006656421</v>
+        <v>1</v>
       </c>
     </row>
     <row r="40" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A40" s="1" t="s">
-        <v>49</v>
+        <v>38</v>
       </c>
       <c r="B40">
         <f ca="1"/>
-        <v>532.53938358076857</v>
+        <v>1325.2905549829743</v>
       </c>
       <c r="C40" s="2">
-        <f ca="1"/>
-        <v>11.754774396694476</v>
+        <v>6</v>
       </c>
       <c r="D40" s="2">
-        <f ca="1"/>
-        <v>0.52768762977401296</v>
+        <v>1</v>
       </c>
     </row>
     <row r="41" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A41" s="1" t="s">
-        <v>50</v>
+        <v>39</v>
       </c>
       <c r="B41">
         <f ca="1"/>
-        <v>496.87405972611873</v>
+        <v>1696.6289969936361</v>
       </c>
       <c r="C41" s="2">
-        <f ca="1"/>
-        <v>12.076679759881657</v>
+        <v>6</v>
       </c>
       <c r="D41" s="2">
-        <f ca="1"/>
-        <v>1.4059907690498479</v>
+        <v>1</v>
       </c>
     </row>
     <row r="42" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A42" s="1" t="s">
-        <v>51</v>
+        <v>40</v>
       </c>
       <c r="B42">
         <f ca="1"/>
-        <v>767.4823408439006</v>
+        <v>2261.992661067688</v>
       </c>
       <c r="C42" s="2">
-        <f ca="1"/>
-        <v>12.453980346085649</v>
+        <v>6</v>
       </c>
       <c r="D42" s="2">
-        <f ca="1"/>
-        <v>1.0510969181134306</v>
+        <v>1</v>
       </c>
     </row>
     <row r="43" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A43" s="1" t="s">
-        <v>52</v>
+        <v>41</v>
       </c>
       <c r="B43">
         <f ca="1"/>
-        <v>780.98993854084688</v>
+        <v>2702.9884522924158</v>
       </c>
       <c r="C43" s="2">
-        <f ca="1"/>
-        <v>8.0848072775173225</v>
+        <v>6</v>
       </c>
       <c r="D43" s="2">
-        <f ca="1"/>
-        <v>0.7828898283339345</v>
+        <v>1</v>
       </c>
     </row>
     <row r="44" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A44" s="1" t="s">
-        <v>53</v>
+        <v>42</v>
       </c>
       <c r="B44">
         <f ca="1"/>
-        <v>622.23789541405426</v>
+        <v>1122.9804719770136</v>
       </c>
       <c r="C44" s="2">
-        <f ca="1"/>
-        <v>9.7641681696862577</v>
+        <v>6</v>
       </c>
       <c r="D44" s="2">
-        <f ca="1"/>
-        <v>1.1954464847319717</v>
+        <v>1</v>
       </c>
     </row>
     <row r="45" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A45" s="1" t="s">
-        <v>54</v>
+        <v>43</v>
       </c>
       <c r="B45">
         <f ca="1"/>
-        <v>965.5706462021476</v>
+        <v>2240.1337266963151</v>
       </c>
       <c r="C45" s="2">
-        <f ca="1"/>
-        <v>10.313491868377067</v>
+        <v>6</v>
       </c>
       <c r="D45" s="2">
-        <f ca="1"/>
-        <v>0.77697480641632</v>
+        <v>1</v>
       </c>
     </row>
     <row r="46" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A46" s="1" t="s">
-        <v>55</v>
+        <v>44</v>
       </c>
       <c r="B46">
         <f ca="1"/>
-        <v>954.3863417362661</v>
+        <v>1851.0984237296257</v>
       </c>
       <c r="C46" s="2">
-        <f ca="1"/>
-        <v>12.886939088860579</v>
+        <v>6</v>
       </c>
       <c r="D46" s="2">
-        <f ca="1"/>
-        <v>1.1704666628611016</v>
+        <v>1</v>
       </c>
     </row>
     <row r="47" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A47" s="1" t="s">
-        <v>56</v>
+        <v>45</v>
       </c>
       <c r="B47">
         <f ca="1"/>
-        <v>541.05757022387979</v>
+        <v>2319.3284742967994</v>
       </c>
       <c r="C47" s="2">
-        <f ca="1"/>
-        <v>9.5498869945393796</v>
+        <v>6</v>
       </c>
       <c r="D47" s="2">
-        <f ca="1"/>
-        <v>0.87944271633393623</v>
+        <v>1</v>
       </c>
     </row>
     <row r="48" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A48" s="1" t="s">
-        <v>57</v>
+        <v>46</v>
       </c>
       <c r="B48">
         <f ca="1"/>
-        <v>743.21206792282032</v>
+        <v>259.16203587585096</v>
       </c>
       <c r="C48" s="2">
-        <f ca="1"/>
-        <v>11.814667106286803</v>
+        <v>6</v>
       </c>
       <c r="D48" s="2">
-        <f ca="1"/>
-        <v>1.2770516642378289</v>
+        <v>1</v>
       </c>
     </row>
     <row r="49" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A49" s="1" t="s">
-        <v>58</v>
+        <v>47</v>
       </c>
       <c r="B49">
         <f ca="1"/>
-        <v>613.05109265994906</v>
+        <v>1109.0437414041289</v>
       </c>
       <c r="C49" s="2">
-        <f ca="1"/>
-        <v>11.495260382126826</v>
+        <v>6</v>
       </c>
       <c r="D49" s="2">
-        <f ca="1"/>
-        <v>1.4058126055666811</v>
+        <v>1</v>
       </c>
     </row>
     <row r="50" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A50" s="1" t="s">
-        <v>59</v>
+        <v>48</v>
       </c>
       <c r="B50">
         <f ca="1"/>
-        <v>1069.2005683408981</v>
+        <v>859.11061710241211</v>
       </c>
       <c r="C50" s="2">
-        <f ca="1"/>
-        <v>14.901202587575312</v>
+        <v>6</v>
       </c>
       <c r="D50" s="2">
-        <f ca="1"/>
-        <v>0.71836715400928086</v>
+        <v>1</v>
       </c>
     </row>
     <row r="51" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A51" s="1" t="s">
-        <v>60</v>
+        <v>49</v>
       </c>
       <c r="B51">
         <f ca="1"/>
-        <v>546.80697237924073</v>
+        <v>2281.2066606823714</v>
       </c>
       <c r="C51" s="2">
-        <f ca="1"/>
-        <v>8.2191814902887028</v>
+        <v>6</v>
       </c>
       <c r="D51" s="2">
-        <f ca="1"/>
-        <v>0.56162647037096169</v>
+        <v>1</v>
       </c>
     </row>
     <row r="52" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A52" s="1" t="s">
-        <v>61</v>
+        <v>50</v>
       </c>
       <c r="B52">
         <f ca="1"/>
-        <v>1077.7093278507302</v>
+        <v>977.65881814840577</v>
       </c>
       <c r="C52" s="2">
-        <f ca="1"/>
-        <v>13.624480243088342</v>
+        <v>6</v>
       </c>
       <c r="D52" s="2">
-        <f ca="1"/>
-        <v>1.4503936659527532</v>
+        <v>1</v>
       </c>
     </row>
     <row r="53" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A53" s="1" t="s">
-        <v>62</v>
+        <v>51</v>
       </c>
       <c r="B53">
         <f ca="1"/>
-        <v>682.46304191684999</v>
+        <v>772.99392214190493</v>
       </c>
       <c r="C53" s="2">
-        <f ca="1"/>
-        <v>11.597761726157925</v>
+        <v>6</v>
       </c>
       <c r="D53" s="2">
-        <f ca="1"/>
-        <v>0.79304241665970165</v>
+        <v>1</v>
       </c>
     </row>
     <row r="54" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A54" s="1" t="s">
-        <v>63</v>
+        <v>52</v>
       </c>
       <c r="B54">
         <f ca="1"/>
-        <v>648.90756496923518</v>
+        <v>59.471254695470179</v>
       </c>
       <c r="C54" s="2">
-        <f ca="1"/>
-        <v>11.739993606594782</v>
+        <v>6</v>
       </c>
       <c r="D54" s="2">
-        <f ca="1"/>
-        <v>0.94826869645773715</v>
+        <v>1</v>
       </c>
     </row>
     <row r="55" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A55" s="1" t="s">
-        <v>64</v>
+        <v>53</v>
       </c>
       <c r="B55">
         <f ca="1"/>
-        <v>959.85112420225823</v>
+        <v>2724.8485925034665</v>
       </c>
       <c r="C55" s="2">
-        <f ca="1"/>
-        <v>12.334593959713699</v>
+        <v>6</v>
       </c>
       <c r="D55" s="2">
-        <f ca="1"/>
-        <v>0.60577195553090357</v>
+        <v>1</v>
       </c>
     </row>
     <row r="56" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A56" s="1" t="s">
-        <v>65</v>
+        <v>54</v>
       </c>
       <c r="B56">
         <f ca="1"/>
-        <v>826.68877698523602</v>
+        <v>2679.566224128037</v>
       </c>
       <c r="C56" s="2">
-        <f ca="1"/>
-        <v>14.365563615231281</v>
+        <v>6</v>
       </c>
       <c r="D56" s="2">
-        <f ca="1"/>
-        <v>1.4828640820580903</v>
+        <v>1</v>
       </c>
     </row>
     <row r="57" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A57" s="1" t="s">
-        <v>66</v>
+        <v>55</v>
       </c>
       <c r="B57">
         <f ca="1"/>
-        <v>758.23587709751337</v>
+        <v>2180.1886399897371</v>
       </c>
       <c r="C57" s="2">
-        <f ca="1"/>
-        <v>11.244038938275146</v>
+        <v>6</v>
       </c>
       <c r="D57" s="2">
-        <f ca="1"/>
-        <v>0.72742155534669584</v>
+        <v>1</v>
       </c>
     </row>
     <row r="58" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A58" s="1" t="s">
-        <v>67</v>
+        <v>56</v>
       </c>
       <c r="B58">
         <f ca="1"/>
-        <v>582.0876701073596</v>
+        <v>2052.7929458000913</v>
       </c>
       <c r="C58" s="2">
-        <f ca="1"/>
-        <v>8.69311402545509</v>
+        <v>6</v>
       </c>
       <c r="D58" s="2">
-        <f ca="1"/>
-        <v>0.53478125780651276</v>
+        <v>1</v>
       </c>
     </row>
     <row r="59" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A59" s="1" t="s">
-        <v>68</v>
+        <v>57</v>
       </c>
       <c r="B59">
         <f ca="1"/>
-        <v>716.44337045581801</v>
+        <v>1918.1059729878443</v>
       </c>
       <c r="C59" s="2">
-        <f ca="1"/>
-        <v>10.724979688572896</v>
+        <v>6</v>
       </c>
       <c r="D59" s="2">
-        <f ca="1"/>
-        <v>0.48877104906229829</v>
+        <v>1</v>
       </c>
     </row>
     <row r="60" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A60" s="1" t="s">
-        <v>69</v>
+        <v>58</v>
       </c>
       <c r="B60">
         <f ca="1"/>
-        <v>477.89643437431641</v>
+        <v>386.83473448379436</v>
       </c>
       <c r="C60" s="2">
-        <f ca="1"/>
-        <v>10.957347591272459</v>
+        <v>6</v>
       </c>
       <c r="D60" s="2">
-        <f ca="1"/>
-        <v>0.57642236150756077</v>
-      </c>
-    </row>
-    <row r="61" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A61" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="B61">
-        <f ca="1"/>
-        <v>361.79527166063167</v>
-      </c>
-      <c r="C61" s="2">
-        <f ca="1"/>
-        <v>8.4998602895317319</v>
-      </c>
-      <c r="D61" s="2">
-        <f ca="1"/>
-        <v>1.0910990890976866</v>
-      </c>
-    </row>
-    <row r="62" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A62" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="B62">
-        <f ca="1"/>
-        <v>916.5082884891267</v>
-      </c>
-      <c r="C62" s="2">
-        <f ca="1"/>
-        <v>8.1784403332283766</v>
-      </c>
-      <c r="D62" s="2">
-        <f ca="1"/>
-        <v>1.2923379945456868</v>
-      </c>
-    </row>
-    <row r="63" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A63" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="B63">
-        <f ca="1"/>
-        <v>692.88131220459604</v>
-      </c>
-      <c r="C63" s="2">
-        <f ca="1"/>
-        <v>11.583169231022641</v>
-      </c>
-      <c r="D63" s="2">
-        <f ca="1"/>
-        <v>1.3208469351078307</v>
-      </c>
-    </row>
-    <row r="64" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A64" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="B64">
-        <f ca="1"/>
-        <v>462.6731372177403</v>
-      </c>
-      <c r="C64" s="2">
-        <f ca="1"/>
-        <v>11.728187289313604</v>
-      </c>
-      <c r="D64" s="2">
-        <f ca="1"/>
-        <v>1.2368311613532736</v>
-      </c>
-    </row>
-    <row r="65" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A65" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="B65">
-        <f ca="1"/>
-        <v>1052.1545949997756</v>
-      </c>
-      <c r="C65" s="2">
-        <f ca="1"/>
-        <v>10.619213100015561</v>
-      </c>
-      <c r="D65" s="2">
-        <f ca="1"/>
-        <v>0.55786076480757774</v>
-      </c>
-    </row>
-    <row r="66" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A66" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="B66">
-        <f ca="1"/>
-        <v>385.93321203093592</v>
-      </c>
-      <c r="C66" s="2">
-        <f ca="1"/>
-        <v>14.970804299085254</v>
-      </c>
-      <c r="D66" s="2">
-        <f ca="1"/>
-        <v>1.1951321708394502</v>
-      </c>
-    </row>
-    <row r="67" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A67" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="B67">
-        <f ca="1"/>
-        <v>504.11003768045498</v>
-      </c>
-      <c r="C67" s="2">
-        <f ca="1"/>
-        <v>13.042759059989349</v>
-      </c>
-      <c r="D67" s="2">
-        <f ca="1"/>
-        <v>0.46025148047836351</v>
+        <v>1</v>
       </c>
     </row>
   </sheetData>
